--- a/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.2_KS_Holdout_seed_999/metrics/Trial_13__Reeval_Taguchi_Modell_1.2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.2_KS_Holdout_seed_999/metrics/Trial_13__Reeval_Taguchi_Modell_1.2.xlsx
@@ -5417,22 +5417,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="90"/>
                 <c:pt idx="0">
-                  <c:v>0.2527869343757629</c:v>
+                  <c:v>0.2527840137481689</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.44250679016113</c:v>
+                  <c:v>14.44250392913818</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44.65410232543945</c:v>
+                  <c:v>44.65411376953125</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.466851234436035</c:v>
+                  <c:v>5.466856479644775</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>88.00496673583984</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41.87147903442383</c:v>
+                  <c:v>41.87148284912109</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>-0.2901491522789001</c:v>
@@ -5444,16 +5444,16 @@
                   <c:v>95.15872192382812</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.2907191216945648</c:v>
+                  <c:v>-0.2907132506370544</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>94.99188995361328</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.1272874623537064</c:v>
+                  <c:v>-0.1272845268249512</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.1841747015714645</c:v>
+                  <c:v>-0.1841791123151779</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>34.33346939086914</c:v>
@@ -5462,7 +5462,7 @@
                   <c:v>94.68706512451172</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>94.95964813232422</c:v>
+                  <c:v>94.95964050292969</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>66.88961791992188</c:v>
@@ -5471,40 +5471,40 @@
                   <c:v>95.29026794433594</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.5270828008651733</c:v>
+                  <c:v>-0.5270769000053406</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>95.30073547363281</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.202014923095703</c:v>
+                  <c:v>2.202012062072754</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>93.82399749755859</c:v>
+                  <c:v>93.82398986816406</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-0.6840870976448059</c:v>
+                  <c:v>-0.6840900778770447</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-0.2593114972114563</c:v>
+                  <c:v>-0.2593144476413727</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-1.574747443199158</c:v>
+                  <c:v>-1.574745893478394</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-0.2360175549983978</c:v>
+                  <c:v>-0.2360146045684814</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-0.3645922541618347</c:v>
+                  <c:v>-0.3646025657653809</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-0.3693936169147491</c:v>
+                  <c:v>-0.3693965673446655</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>87.69587707519531</c:v>
+                  <c:v>87.69586944580078</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-0.2913951575756073</c:v>
+                  <c:v>-0.2913922071456909</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>95.264404296875</c:v>
@@ -5513,19 +5513,19 @@
                   <c:v>89.92275238037109</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-0.2878029644489288</c:v>
+                  <c:v>-0.2878000140190125</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>93.26123809814453</c:v>
+                  <c:v>93.26122283935547</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.08983247727155685</c:v>
+                  <c:v>0.08982658386230469</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>93.90635681152344</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-0.114678755402565</c:v>
+                  <c:v>-0.114687591791153</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>86.98413848876953</c:v>
@@ -5537,22 +5537,22 @@
                   <c:v>65.95706939697266</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>95.30141448974609</c:v>
+                  <c:v>95.30140686035156</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-0.2297713756561279</c:v>
+                  <c:v>-0.2297654747962952</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>87.81914520263672</c:v>
+                  <c:v>87.81912994384766</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>94.48905944824219</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-0.1773290783166885</c:v>
+                  <c:v>-0.177323192358017</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-0.2203778028488159</c:v>
+                  <c:v>-0.2203792780637741</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>95.26967620849609</c:v>
@@ -5561,10 +5561,10 @@
                   <c:v>-0.124035507440567</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-0.3394528925418854</c:v>
+                  <c:v>-0.339451402425766</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>95.28962707519531</c:v>
+                  <c:v>95.28961944580078</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>88.07939910888672</c:v>
@@ -5573,7 +5573,7 @@
                   <c:v>-0.3083412945270538</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>95.47099304199219</c:v>
+                  <c:v>95.47098541259766</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>94.35842132568359</c:v>
@@ -5585,7 +5585,7 @@
                   <c:v>-0.1609043180942535</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>95.28974151611328</c:v>
+                  <c:v>95.28973388671875</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>95.29791259765625</c:v>
@@ -5597,76 +5597,76 @@
                   <c:v>94.57045745849609</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-0.5028815865516663</c:v>
+                  <c:v>-0.5028801560401917</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-0.3536227643489838</c:v>
+                  <c:v>-0.3536316156387329</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>50.61481094360352</c:v>
+                  <c:v>50.61480712890625</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-0.2888236343860626</c:v>
+                  <c:v>-0.288829505443573</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>95.27808380126953</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-0.2927736937999725</c:v>
+                  <c:v>-0.2927751839160919</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>83.77162933349609</c:v>
+                  <c:v>83.77163696289062</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>-0.3124769330024719</c:v>
+                  <c:v>-0.3124857544898987</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>95.26578521728516</c:v>
+                  <c:v>95.26577758789062</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>95.22214508056641</c:v>
+                  <c:v>95.22215270996094</c:v>
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>95.23597717285156</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>87.50189208984375</c:v>
+                  <c:v>87.50188446044922</c:v>
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>95.26674652099609</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>-0.2942789196968079</c:v>
+                  <c:v>-0.2942847907543182</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>95.30097198486328</c:v>
+                  <c:v>95.30098724365234</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>95.30122375488281</c:v>
+                  <c:v>95.30121612548828</c:v>
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>94.09093475341797</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>95.16490936279297</c:v>
+                  <c:v>95.16492462158203</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>-0.5365352630615234</c:v>
+                  <c:v>-0.5365279316902161</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>29.44888687133789</c:v>
+                  <c:v>29.44888114929199</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>95.32304382324219</c:v>
+                  <c:v>95.32305908203125</c:v>
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>69.04062652587891</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-0.283363938331604</c:v>
+                  <c:v>-0.2833698093891144</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>-0.2761633694171906</c:v>
+                  <c:v>-0.2761663198471069</c:v>
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>95.29067993164062</c:v>
@@ -5675,13 +5675,13 @@
                   <c:v>-0.2481093108654022</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>9.178677558898926</c:v>
+                  <c:v>9.178679466247559</c:v>
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>95.29659271240234</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-0.3461644649505615</c:v>
+                  <c:v>-0.3461615443229675</c:v>
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>94.62881469726562</c:v>
@@ -6379,7 +6379,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.2527869343757629</v>
+        <v>0.2527840137481689</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -6411,7 +6411,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>14.44250679016113</v>
+        <v>14.44250392913818</v>
       </c>
       <c r="G3">
         <v>99</v>
@@ -6443,7 +6443,7 @@
         <v>31.3344</v>
       </c>
       <c r="F4">
-        <v>44.65410232543945</v>
+        <v>44.65411376953125</v>
       </c>
       <c r="G4">
         <v>99</v>
@@ -6475,7 +6475,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>5.466851234436035</v>
+        <v>5.466856479644775</v>
       </c>
       <c r="G5">
         <v>99</v>
@@ -6539,7 +6539,7 @@
         <v>48.757</v>
       </c>
       <c r="F7">
-        <v>41.87147903442383</v>
+        <v>41.87148284912109</v>
       </c>
       <c r="G7">
         <v>99</v>
@@ -6631,7 +6631,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>-0.2907191216945648</v>
+        <v>-0.2907132506370544</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -6671,7 +6671,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>-0.1272874623537064</v>
+        <v>-0.1272845268249512</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -6691,7 +6691,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>-0.1841747015714645</v>
+        <v>-0.1841791123151779</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -6751,7 +6751,7 @@
         <v>80.1264</v>
       </c>
       <c r="F17">
-        <v>94.95964813232422</v>
+        <v>94.95964050292969</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -6811,7 +6811,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>-0.5270828008651733</v>
+        <v>-0.5270769000053406</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -6851,7 +6851,7 @@
         <v>33.6509</v>
       </c>
       <c r="F22">
-        <v>2.202014923095703</v>
+        <v>2.202012062072754</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -6871,7 +6871,7 @@
         <v>93.91419999999999</v>
       </c>
       <c r="F23">
-        <v>93.82399749755859</v>
+        <v>93.82398986816406</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -6891,7 +6891,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>-0.6840870976448059</v>
+        <v>-0.6840900778770447</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -6911,7 +6911,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>-0.2593114972114563</v>
+        <v>-0.2593144476413727</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -6931,7 +6931,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>-1.574747443199158</v>
+        <v>-1.574745893478394</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -6951,7 +6951,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>-0.2360175549983978</v>
+        <v>-0.2360146045684814</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -6971,7 +6971,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>-0.3645922541618347</v>
+        <v>-0.3646025657653809</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -6991,7 +6991,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>-0.3693936169147491</v>
+        <v>-0.3693965673446655</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7011,7 +7011,7 @@
         <v>77.453</v>
       </c>
       <c r="F30">
-        <v>87.69587707519531</v>
+        <v>87.69586944580078</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7031,7 +7031,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>-0.2913951575756073</v>
+        <v>-0.2913922071456909</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7091,7 +7091,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>-0.2878029644489288</v>
+        <v>-0.2878000140190125</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7111,7 +7111,7 @@
         <v>97.8249</v>
       </c>
       <c r="F35">
-        <v>93.26123809814453</v>
+        <v>93.26122283935547</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7131,7 +7131,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>0.08983247727155685</v>
+        <v>0.08982658386230469</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7171,7 +7171,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>-0.114678755402565</v>
+        <v>-0.114687591791153</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7251,7 +7251,7 @@
         <v>94.5993</v>
       </c>
       <c r="F42">
-        <v>95.30141448974609</v>
+        <v>95.30140686035156</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7271,7 +7271,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>-0.2297713756561279</v>
+        <v>-0.2297654747962952</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7291,7 +7291,7 @@
         <v>97.666</v>
       </c>
       <c r="F44">
-        <v>87.81914520263672</v>
+        <v>87.81912994384766</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -7331,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>-0.1773290783166885</v>
+        <v>-0.177323192358017</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -7351,7 +7351,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>-0.2203778028488159</v>
+        <v>-0.2203792780637741</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -7411,7 +7411,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>-0.3394528925418854</v>
+        <v>-0.339451402425766</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -7431,7 +7431,7 @@
         <v>95.00530000000001</v>
       </c>
       <c r="F51">
-        <v>95.28962707519531</v>
+        <v>95.28961944580078</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -7491,7 +7491,7 @@
         <v>93.3826</v>
       </c>
       <c r="F54">
-        <v>95.47099304199219</v>
+        <v>95.47098541259766</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -7571,7 +7571,7 @@
         <v>98.0081</v>
       </c>
       <c r="F58">
-        <v>95.28974151611328</v>
+        <v>95.28973388671875</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -7651,7 +7651,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>-0.5028815865516663</v>
+        <v>-0.5028801560401917</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -7671,7 +7671,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>-0.3536227643489838</v>
+        <v>-0.3536316156387329</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -7691,7 +7691,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>50.61481094360352</v>
+        <v>50.61480712890625</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>-0.2888236343860626</v>
+        <v>-0.288829505443573</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>-0.2927736937999725</v>
+        <v>-0.2927751839160919</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>83.77162933349609</v>
+        <v>83.77163696289062</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -7791,7 +7791,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>-0.3124769330024719</v>
+        <v>-0.3124857544898987</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -7811,7 +7811,7 @@
         <v>95.2567</v>
       </c>
       <c r="F70">
-        <v>95.26578521728516</v>
+        <v>95.26577758789062</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -7831,7 +7831,7 @@
         <v>98.4734</v>
       </c>
       <c r="F71">
-        <v>95.22214508056641</v>
+        <v>95.22215270996094</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -7871,7 +7871,7 @@
         <v>89.2407</v>
       </c>
       <c r="F73">
-        <v>87.50189208984375</v>
+        <v>87.50188446044922</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>-0.2942789196968079</v>
+        <v>-0.2942847907543182</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>94.8021</v>
       </c>
       <c r="F76">
-        <v>95.30097198486328</v>
+        <v>95.30098724365234</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -7951,7 +7951,7 @@
         <v>98.31310000000001</v>
       </c>
       <c r="F77">
-        <v>95.30122375488281</v>
+        <v>95.30121612548828</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>88.10899999999999</v>
       </c>
       <c r="F79">
-        <v>95.16490936279297</v>
+        <v>95.16492462158203</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>-0.5365352630615234</v>
+        <v>-0.5365279316902161</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>87.7663</v>
       </c>
       <c r="F81">
-        <v>29.44888687133789</v>
+        <v>29.44888114929199</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>94.37</v>
       </c>
       <c r="F82">
-        <v>95.32304382324219</v>
+        <v>95.32305908203125</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8091,7 +8091,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>-0.283363938331604</v>
+        <v>-0.2833698093891144</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>-0.2761633694171906</v>
+        <v>-0.2761663198471069</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8171,7 +8171,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>9.178677558898926</v>
+        <v>9.178679466247559</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>-0.3461644649505615</v>
+        <v>-0.3461615443229675</v>
       </c>
     </row>
     <row r="91" spans="1:6">
